--- a/docs/scripts/2022/11/1117 Mt Abi(20221113).xlsx
+++ b/docs/scripts/2022/11/1117 Mt Abi(20221113).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frankwu/coding/life/live-in-the-world/docs/scripts/2022/11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F48962C4-9673-C64B-8CB4-B1B5E0971390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFFAADF-36F5-4945-B752-FB2968FEF72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,25 +396,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -425,27 +434,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -473,6 +461,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -767,16 +767,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="10" t="s">
         <v>1</v>
       </c>
@@ -785,311 +785,311 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="12" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="20"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="18" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="12" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="18" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="18" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="12" t="s">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="18" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="12" t="s">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="18" t="s">
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="31"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="18" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="12" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="12" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="18" t="s">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="20"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
@@ -1102,50 +1102,56 @@
       <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:H12"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F15:H15"/>
@@ -1153,29 +1159,23 @@
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:H17"/>
     <mergeCell ref="B13:E16"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
